--- a/Week-1/week_1_11.soru.xlsx
+++ b/Week-1/week_1_11.soru.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Desktop\veritabani-yonetim-sistemleri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Desktop\veritabani-yonetim-sistemleri\Week-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA24975-5A09-4635-A0D6-DE30F51B028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B22A8D-F541-4F6F-84EB-14FC37E0A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{75F5DC52-6D16-4AEE-9774-85FE442FDD15}"/>
   </bookViews>
@@ -334,14 +334,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,34 +704,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -749,7 +749,7 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -758,7 +758,7 @@
       <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
@@ -767,7 +767,7 @@
       <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R2" t="s">
@@ -787,7 +787,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
@@ -814,7 +814,7 @@
       <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R3" t="s">
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
@@ -834,7 +834,7 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
@@ -843,7 +843,7 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R4" t="s">
@@ -854,7 +854,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -939,7 +939,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,40 +959,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
@@ -1001,25 +1001,25 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R2" t="s">
@@ -1066,7 +1066,7 @@
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1337,23 +1337,23 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F27" si="0">AVERAGE(D19,E19)</f>
+        <f t="shared" ref="F19:F26" si="0">AVERAGE(D19,E19)</f>
         <v>90</v>
       </c>
     </row>
@@ -1568,6 +1568,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100868F1A023A98B84C8AD79327A1A0ED58" ma:contentTypeVersion="5" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="8253b31a8e3fa4514a5713372e5051c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9bdbfdf1-b590-4f35-94ba-dc4de764f119" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd11abbfc5e90465abc9ee96f85f46c8" ns3:_="">
     <xsd:import namespace="9bdbfdf1-b590-4f35-94ba-dc4de764f119"/>
@@ -1717,22 +1732,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{813212A9-78C5-4282-8F8E-20BA0655C4EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9bdbfdf1-b590-4f35-94ba-dc4de764f119"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D320666-F2F5-4525-8C04-9193FBE65E7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A4BB30-6DEA-4DFD-AF5C-165B62FD3941}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1748,28 +1772,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D320666-F2F5-4525-8C04-9193FBE65E7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{813212A9-78C5-4282-8F8E-20BA0655C4EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9bdbfdf1-b590-4f35-94ba-dc4de764f119"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>